--- a/Олонецкий РЭС/Перечень ПС.xlsx
+++ b/Олонецкий РЭС/Перечень ПС.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pbenergo-server\ПроектБалтЭнерго\01_Объекты\99_СР Олонецкого РЭС до 35 кВ\006_Проектная документация\00_Общее\КС\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430" tabRatio="801"/>
   </bookViews>
@@ -1989,7 +1984,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
